--- a/Praticas/calculocotamax.xlsx
+++ b/Praticas/calculocotamax.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eow\Desktop\Mestrado\FD\Praticas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065C710C-2563-450B-875F-56931746CE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13710" windowHeight="11805"/>
+    <workbookView xWindow="7575" yWindow="525" windowWidth="21525" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,8 +75,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,16 +84,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -100,13 +128,140 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,141 +541,194 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F4" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="C5" s="2">
         <v>114</v>
       </c>
-      <c r="C4">
+      <c r="D5" s="2">
         <v>99</v>
       </c>
-      <c r="D4">
+      <c r="E5" s="2">
         <v>98</v>
       </c>
-      <c r="E4">
+      <c r="F5" s="2">
         <v>116</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="C6" s="2">
         <v>102</v>
       </c>
-      <c r="C5">
+      <c r="D6" s="2">
         <v>101</v>
       </c>
-      <c r="D5">
+      <c r="E6" s="2">
         <v>93</v>
       </c>
-      <c r="E5">
+      <c r="F6" s="2">
         <v>127</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="G6" s="2"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="C7" s="2">
         <v>99</v>
       </c>
-      <c r="C6">
+      <c r="D7" s="2">
         <v>108</v>
       </c>
-      <c r="D6">
+      <c r="E7" s="2">
         <v>79</v>
       </c>
-      <c r="E6">
+      <c r="F7" s="2">
         <v>112</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F8" t="s">
+      <c r="G7" s="2"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F9">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2">
         <v>114</v>
       </c>
-      <c r="G9">
+      <c r="H9" s="3">
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="G10" s="2"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="1">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="4">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="13" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G14">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="5">
         <v>188</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>